--- a/3 Total Costs/10 Total Costs Results Final/NPVs Tabulated.xlsx
+++ b/3 Total Costs/10 Total Costs Results Final/NPVs Tabulated.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirgazar/Documents/GitHub/Decarbonization-Tradeoffs/3 Total Costs/10 Total Costs Results Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE9A81-B5BA-0948-84D0-A16AAB792481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00911942-1D5C-9146-80DF-7B62D2C795E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17420" xr2:uid="{E5DDF964-77AB-244D-86BD-47D55E96925E}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{E5DDF964-77AB-244D-86BD-47D55E96925E}"/>
   </bookViews>
   <sheets>
-    <sheet name="all NPVs" sheetId="1" r:id="rId1"/>
+    <sheet name="total NPVs" sheetId="1" r:id="rId1"/>
+    <sheet name="by cost type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="173">
   <si>
     <t>Pathway</t>
   </si>
@@ -126,13 +127,442 @@
   </si>
   <si>
     <t>NPV 2024-bUSD [discount rate 7%]</t>
+  </si>
+  <si>
+    <t>Air Emissions</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Unmet Demand Penalty</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>GHG Emissions</t>
+  </si>
+  <si>
+    <t>0.23 [0.23-0.23]</t>
+  </si>
+  <si>
+    <t>0.24 [0.22-0.27]</t>
+  </si>
+  <si>
+    <t>0.21 [0.19-0.24]</t>
+  </si>
+  <si>
+    <t>0.20 [0.20-0.21]</t>
+  </si>
+  <si>
+    <t>0.09 [0.08-0.11]</t>
+  </si>
+  <si>
+    <t>0.06 [0.06-0.07]</t>
+  </si>
+  <si>
+    <t>4.53 [4.32-4.73]</t>
+  </si>
+  <si>
+    <t>0.80 [0.80-0.81]</t>
+  </si>
+  <si>
+    <t>0.00 [0.00-0.00]</t>
+  </si>
+  <si>
+    <t>38.64 [34.08-42.75]</t>
+  </si>
+  <si>
+    <t>24.47 [10.16-38.79]</t>
+  </si>
+  <si>
+    <t>140.29 [139.67-141.16]</t>
+  </si>
+  <si>
+    <t>18.33 [8.29-30.43]</t>
+  </si>
+  <si>
+    <t>23.46 [22.56-24.54]</t>
+  </si>
+  <si>
+    <t>6.38 [6.03-6.70]</t>
+  </si>
+  <si>
+    <t>0.27 [0.26-0.27]</t>
+  </si>
+  <si>
+    <t>166.51 [132.36-205.95]</t>
+  </si>
+  <si>
+    <t>64.08 [54.63-73.83]</t>
+  </si>
+  <si>
+    <t>11.40 [4.94-17.87]</t>
+  </si>
+  <si>
+    <t>50.56 [49.33-52.37]</t>
+  </si>
+  <si>
+    <t>59.55 [28.43-93.01]</t>
+  </si>
+  <si>
+    <t>0.27 [0.25-0.32]</t>
+  </si>
+  <si>
+    <t>3.11 [2.81-3.38]</t>
+  </si>
+  <si>
+    <t>0.30 [0.30-0.31]</t>
+  </si>
+  <si>
+    <t>186.82 [148.11-231.58]</t>
+  </si>
+  <si>
+    <t>68.47 [58.58-78.75]</t>
+  </si>
+  <si>
+    <t>12.98 [5.08-20.89]</t>
+  </si>
+  <si>
+    <t>60.54 [59.36-62.26]</t>
+  </si>
+  <si>
+    <t>23.28 [10.45-38.36]</t>
+  </si>
+  <si>
+    <t>0.61 [0.53-0.70]</t>
+  </si>
+  <si>
+    <t>3.40 [3.09-3.67]</t>
+  </si>
+  <si>
+    <t>0.27 [0.26-0.28]</t>
+  </si>
+  <si>
+    <t>156.91 [124.91-193.87]</t>
+  </si>
+  <si>
+    <t>62.05 [52.80-71.55]</t>
+  </si>
+  <si>
+    <t>11.40 [4.95-17.85]</t>
+  </si>
+  <si>
+    <t>50.48 [49.24-52.27]</t>
+  </si>
+  <si>
+    <t>74.61 [36.04-115.62]</t>
+  </si>
+  <si>
+    <t>0.23 [0.21-0.28]</t>
+  </si>
+  <si>
+    <t>3.12 [2.81-3.39]</t>
+  </si>
+  <si>
+    <t>208.60 [155.58-266.57]</t>
+  </si>
+  <si>
+    <t>71.07 [56.45-85.94]</t>
+  </si>
+  <si>
+    <t>59.29 [51.23-67.89]</t>
+  </si>
+  <si>
+    <t>14.58 [6.21-25.04]</t>
+  </si>
+  <si>
+    <t>0.28 [0.27-0.28]</t>
+  </si>
+  <si>
+    <t>182.29 [92.52-274.96]</t>
+  </si>
+  <si>
+    <t>71.81 [57.70-90.64]</t>
+  </si>
+  <si>
+    <t>33.12 [24.77-41.54]</t>
+  </si>
+  <si>
+    <t>50.77 [49.83-51.91]</t>
+  </si>
+  <si>
+    <t>18.35 [8.35-29.83]</t>
+  </si>
+  <si>
+    <t>0.32 [0.29-0.36]</t>
+  </si>
+  <si>
+    <t>8.18 [7.22-8.97]</t>
+  </si>
+  <si>
+    <t>0.29 [0.29-0.30]</t>
+  </si>
+  <si>
+    <t>185.02 [141.08-234.48]</t>
+  </si>
+  <si>
+    <t>69.14 [58.43-80.81]</t>
+  </si>
+  <si>
+    <t>15.17 [7.63-22.72]</t>
+  </si>
+  <si>
+    <t>56.31 [55.14-58.05]</t>
+  </si>
+  <si>
+    <t>23.33 [10.45-38.36]</t>
+  </si>
+  <si>
+    <t>0.36 [0.32-0.41]</t>
+  </si>
+  <si>
+    <t>3.95 [3.56-4.29]</t>
+  </si>
+  <si>
+    <t>0.25 [0.25-0.26]</t>
+  </si>
+  <si>
+    <t>168.93 [131.22-211.64]</t>
+  </si>
+  <si>
+    <t>65.38 [55.31-76.14]</t>
+  </si>
+  <si>
+    <t>12.62 [6.58-18.67]</t>
+  </si>
+  <si>
+    <t>46.62 [45.47-48.37]</t>
+  </si>
+  <si>
+    <t>59.62 [28.52-93.01]</t>
+  </si>
+  <si>
+    <t>0.16 [0.14-0.20]</t>
+  </si>
+  <si>
+    <t>3.43 [3.08-3.75]</t>
+  </si>
+  <si>
+    <t>0.87 [0.87-0.88]</t>
+  </si>
+  <si>
+    <t>65.63 [55.16-77.86]</t>
+  </si>
+  <si>
+    <t>52.11 [45.01-59.18]</t>
+  </si>
+  <si>
+    <t>31.99 [9.28-54.71]</t>
+  </si>
+  <si>
+    <t>172.65 [171.31-173.91]</t>
+  </si>
+  <si>
+    <t>59.58 [28.52-93.01]</t>
+  </si>
+  <si>
+    <t>0.10 [0.09-0.11]</t>
+  </si>
+  <si>
+    <t>7.45 [7.07-7.79]</t>
+  </si>
+  <si>
+    <t>discount rate: 7%</t>
+  </si>
+  <si>
+    <t>discount rate: 3%</t>
+  </si>
+  <si>
+    <t>0.52 [0.52-0.53]</t>
+  </si>
+  <si>
+    <t>25.32 [22.56-27.83]</t>
+  </si>
+  <si>
+    <t>16.72 [7.55-25.89]</t>
+  </si>
+  <si>
+    <t>88.72 [88.20-89.29]</t>
+  </si>
+  <si>
+    <t>12.12 [5.48-20.13]</t>
+  </si>
+  <si>
+    <t>11.26 [10.81-11.81]</t>
+  </si>
+  <si>
+    <t>4.12 [3.91-4.30]</t>
+  </si>
+  <si>
+    <t>0.21 [0.21-0.22]</t>
+  </si>
+  <si>
+    <t>107.77 [85.66-133.36]</t>
+  </si>
+  <si>
+    <t>38.55 [33.22-43.99]</t>
+  </si>
+  <si>
+    <t>9.20 [4.54-13.87]</t>
+  </si>
+  <si>
+    <t>37.55 [36.62-38.86]</t>
+  </si>
+  <si>
+    <t>34.93 [16.63-54.67]</t>
+  </si>
+  <si>
+    <t>0.15 [0.14-0.18]</t>
+  </si>
+  <si>
+    <t>2.21 [2.03-2.37]</t>
+  </si>
+  <si>
+    <t>0.23 [0.23-0.24]</t>
+  </si>
+  <si>
+    <t>120.21 [95.07-149.34]</t>
+  </si>
+  <si>
+    <t>40.90 [35.34-46.62]</t>
+  </si>
+  <si>
+    <t>10.22 [4.64-15.81]</t>
+  </si>
+  <si>
+    <t>43.97 [43.10-45.19]</t>
+  </si>
+  <si>
+    <t>14.73 [6.63-24.22]</t>
+  </si>
+  <si>
+    <t>0.34 [0.30-0.39]</t>
+  </si>
+  <si>
+    <t>2.40 [2.22-2.56]</t>
+  </si>
+  <si>
+    <t>101.68 [81.02-125.57]</t>
+  </si>
+  <si>
+    <t>37.46 [32.24-42.77]</t>
+  </si>
+  <si>
+    <t>9.25 [4.55-13.95]</t>
+  </si>
+  <si>
+    <t>37.79 [36.85-39.10]</t>
+  </si>
+  <si>
+    <t>42.10 [20.27-65.42]</t>
+  </si>
+  <si>
+    <t>0.13 [0.12-0.16]</t>
+  </si>
+  <si>
+    <t>2.22 [2.04-2.38]</t>
+  </si>
+  <si>
+    <t>153.37 [111.69-198.26]</t>
+  </si>
+  <si>
+    <t>46.48 [35.89-57.16]</t>
+  </si>
+  <si>
+    <t>46.60 [38.84-54.72]</t>
+  </si>
+  <si>
+    <t>8.97 [3.83-15.41]</t>
+  </si>
+  <si>
+    <t>107.34 [55.50-160.57]</t>
+  </si>
+  <si>
+    <t>41.02 [33.52-50.80]</t>
+  </si>
+  <si>
+    <t>31.51 [24.41-38.67]</t>
+  </si>
+  <si>
+    <t>41.33 [40.60-42.23]</t>
+  </si>
+  <si>
+    <t>12.14 [5.52-19.73]</t>
+  </si>
+  <si>
+    <t>4.84 [4.34-5.26]</t>
+  </si>
+  <si>
+    <t>119.12 [91.01-150.83]</t>
+  </si>
+  <si>
+    <t>41.10 [35.14-47.51]</t>
+  </si>
+  <si>
+    <t>12.80 [7.21-18.39]</t>
+  </si>
+  <si>
+    <t>42.24 [41.36-43.49]</t>
+  </si>
+  <si>
+    <t>14.76 [6.63-24.22]</t>
+  </si>
+  <si>
+    <t>2.69 [2.47-2.88]</t>
+  </si>
+  <si>
+    <t>110.14 [85.54-137.98]</t>
+  </si>
+  <si>
+    <t>39.23 [33.57-45.21]</t>
+  </si>
+  <si>
+    <t>10.72 [6.20-15.25]</t>
+  </si>
+  <si>
+    <t>35.47 [34.60-36.76]</t>
+  </si>
+  <si>
+    <t>34.98 [16.69-54.67]</t>
+  </si>
+  <si>
+    <t>2.38 [2.17-2.56]</t>
+  </si>
+  <si>
+    <t>0.54 [0.54-0.55]</t>
+  </si>
+  <si>
+    <t>41.23 [34.59-48.95]</t>
+  </si>
+  <si>
+    <t>32.46 [28.37-36.51]</t>
+  </si>
+  <si>
+    <t>19.83 [7.04-32.62]</t>
+  </si>
+  <si>
+    <t>100.84 [99.94-101.68]</t>
+  </si>
+  <si>
+    <t>34.95 [16.69-54.67]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,13 +578,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,9 +624,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58175335-4088-8E42-942E-577B5A41B70C}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,4 +1096,642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B7E7-6868-2542-B7F6-F032B94EF6EB}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="8:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3 Total Costs/10 Total Costs Results Final/NPVs Tabulated.xlsx
+++ b/3 Total Costs/10 Total Costs Results Final/NPVs Tabulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirgazar/Documents/GitHub/Decarbonization-Tradeoffs/3 Total Costs/10 Total Costs Results Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00911942-1D5C-9146-80DF-7B62D2C795E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D101BEC-E854-FB46-9AAE-80AFC341BB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{E5DDF964-77AB-244D-86BD-47D55E96925E}"/>
   </bookViews>
@@ -624,11 +624,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B7E7-6868-2542-B7F6-F032B94EF6EB}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,77 +1128,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1728,9 +1732,10 @@
       <c r="I23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
